--- a/webcrawler/servents.xlsx
+++ b/webcrawler/servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F435"/>
+  <dimension ref="A1:F447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,52 +470,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Foreigner</t>
+          <t>Berserker</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>蒼崎青子</t>
+          <t>ヘンリー・ジキル＆ハイド</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>蒼崎青子</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>亨利·傑基爾＆海德</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>亨利．傑基爾＆海德</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Berserker</t>
+          <t>Foreigner</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ヘンリー・ジキル＆ハイド</t>
+          <t>蒼崎青子</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>亨利·傑基爾＆海德</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>亨利．傑基爾＆海德</t>
-        </is>
-      </c>
+          <t>蒼崎青子</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Grandcaster</t>
+          <t>Loregrandcaster</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -11039,7 +11039,11 @@
           <t>幼體／提亞馬特</t>
         </is>
       </c>
-      <c r="F379" t="inlineStr"/>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>幼體／迪亞馬特</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -11063,7 +11067,11 @@
           <t>所多瑪之獸／德拉科</t>
         </is>
       </c>
-      <c r="F380" t="inlineStr"/>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>所多瑪之獸／德拉科</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -11087,7 +11095,11 @@
           <t>洛庫斯塔</t>
         </is>
       </c>
-      <c r="F381" t="inlineStr"/>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>洛庫斯塔</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -11111,7 +11123,11 @@
           <t>瑟坦特</t>
         </is>
       </c>
-      <c r="F382" t="inlineStr"/>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>瑟坦特</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -11135,7 +11151,11 @@
           <t>果心居士</t>
         </is>
       </c>
-      <c r="F383" t="inlineStr"/>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>果心居士</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -11159,7 +11179,11 @@
           <t>怖軍</t>
         </is>
       </c>
-      <c r="F384" t="inlineStr"/>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>怖軍</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -11183,7 +11207,11 @@
           <t>難敵</t>
         </is>
       </c>
-      <c r="F385" t="inlineStr"/>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>難敵</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -11207,7 +11235,11 @@
           <t>杜爾伽</t>
         </is>
       </c>
-      <c r="F386" t="inlineStr"/>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>杜爾迦</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -11231,7 +11263,11 @@
           <t>美杜莎</t>
         </is>
       </c>
-      <c r="F387" t="inlineStr"/>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>美杜莎</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -11255,7 +11291,11 @@
           <t>雨之魔女梣</t>
         </is>
       </c>
-      <c r="F388" t="inlineStr"/>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>雨之魔女托內莉可</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -11279,7 +11319,11 @@
           <t>阿爾託莉雅·卡斯特</t>
         </is>
       </c>
-      <c r="F389" t="inlineStr"/>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>阿爾托莉亞．Caster</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -11303,7 +11347,11 @@
           <t>鈴鹿御前〔暑假〕</t>
         </is>
       </c>
-      <c r="F390" t="inlineStr"/>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>鈴鹿御前〔暑假〕</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -11327,7 +11375,11 @@
           <t>克洛伊·馮·愛因茲貝倫</t>
         </is>
       </c>
-      <c r="F391" t="inlineStr"/>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>克洛伊．馮．愛因茲貝倫</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -11351,7 +11403,11 @@
           <t>諾克娜蕾·雅蘭杜</t>
         </is>
       </c>
-      <c r="F392" t="inlineStr"/>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>諾克娜蕾雅．雅蘭杜</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -11375,7 +11431,11 @@
           <t>梅柳齊娜</t>
         </is>
       </c>
-      <c r="F393" t="inlineStr"/>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>美露莘</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -11399,7 +11459,11 @@
           <t>ＵＤＫ－巴格斯特</t>
         </is>
       </c>
-      <c r="F394" t="inlineStr"/>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>ＵＤＫ－巴格斯特</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -11423,7 +11487,11 @@
           <t>凱特·庫·米可科爾</t>
         </is>
       </c>
-      <c r="F395" t="inlineStr"/>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>凱特．庫．米可科爾</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -11447,7 +11515,11 @@
           <t>旺吉娜</t>
         </is>
       </c>
-      <c r="F396" t="inlineStr"/>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>旺吉娜</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -11682,7 +11754,11 @@
           <t>源頼光／丑御前</t>
         </is>
       </c>
-      <c r="E406" t="inlineStr"/>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>源賴光／醜御前</t>
+        </is>
+      </c>
       <c r="F406" t="inlineStr"/>
     </row>
     <row r="407">
@@ -11702,7 +11778,11 @@
           <t>由井正雪</t>
         </is>
       </c>
-      <c r="E407" t="inlineStr"/>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>由井正雪</t>
+        </is>
+      </c>
       <c r="F407" t="inlineStr"/>
     </row>
     <row r="408">
@@ -11722,7 +11802,11 @@
           <t>宮本伊織</t>
         </is>
       </c>
-      <c r="E408" t="inlineStr"/>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>宮本伊織</t>
+        </is>
+      </c>
       <c r="F408" t="inlineStr"/>
     </row>
     <row r="409">
@@ -11742,7 +11826,11 @@
           <t>アンドロメダ</t>
         </is>
       </c>
-      <c r="E409" t="inlineStr"/>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>安德洛墨達</t>
+        </is>
+      </c>
       <c r="F409" t="inlineStr"/>
     </row>
     <row r="410">
@@ -11762,7 +11850,11 @@
           <t>マリー・アントワネット〔オルタ〕</t>
         </is>
       </c>
-      <c r="E410" t="inlineStr"/>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>瑪麗·安託瓦內特〔Alter〕</t>
+        </is>
+      </c>
       <c r="F410" t="inlineStr"/>
     </row>
     <row r="411">
@@ -11782,7 +11874,11 @@
           <t>耀星のハサン</t>
         </is>
       </c>
-      <c r="E411" t="inlineStr"/>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>耀星哈桑</t>
+        </is>
+      </c>
       <c r="F411" t="inlineStr"/>
     </row>
     <row r="412">
@@ -11802,7 +11898,11 @@
           <t>巌窟王　モンテ・クリスト</t>
         </is>
       </c>
-      <c r="E412" t="inlineStr"/>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>巖窟王　基督山</t>
+        </is>
+      </c>
       <c r="F412" t="inlineStr"/>
     </row>
     <row r="413">
@@ -11822,7 +11922,11 @@
           <t>アレッサンドロ・ディ・カリオストロ</t>
         </is>
       </c>
-      <c r="E413" t="inlineStr"/>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>亞歷山德羅·迪·卡利奧斯特羅</t>
+        </is>
+      </c>
       <c r="F413" t="inlineStr"/>
     </row>
     <row r="414">
@@ -11842,7 +11946,11 @@
           <t>Ｅ－フレアマリー</t>
         </is>
       </c>
-      <c r="E414" t="inlineStr"/>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>Ｅ－火瑪麗</t>
+        </is>
+      </c>
       <c r="F414" t="inlineStr"/>
     </row>
     <row r="415">
@@ -11862,7 +11970,11 @@
           <t>Ｅ－アクアマリー</t>
         </is>
       </c>
-      <c r="E415" t="inlineStr"/>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>Ｅ－水瑪麗</t>
+        </is>
+      </c>
       <c r="F415" t="inlineStr"/>
     </row>
     <row r="416">
@@ -11882,7 +11994,11 @@
           <t>蒼崎青子</t>
         </is>
       </c>
-      <c r="E416" t="inlineStr"/>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>蒼崎青子</t>
+        </is>
+      </c>
       <c r="F416" t="inlineStr"/>
     </row>
     <row r="417">
@@ -11902,7 +12018,11 @@
           <t>静希草十郎</t>
         </is>
       </c>
-      <c r="E417" t="inlineStr"/>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>靜希草十郎</t>
+        </is>
+      </c>
       <c r="F417" t="inlineStr"/>
     </row>
     <row r="418">
@@ -11922,7 +12042,11 @@
           <t>久遠寺有珠</t>
         </is>
       </c>
-      <c r="E418" t="inlineStr"/>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>久遠寺有珠</t>
+        </is>
+      </c>
       <c r="F418" t="inlineStr"/>
     </row>
     <row r="419">
@@ -11942,7 +12066,11 @@
           <t>ひびき＆千鍵</t>
         </is>
       </c>
-      <c r="E419" t="inlineStr"/>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>響＆千鍵</t>
+        </is>
+      </c>
       <c r="F419" t="inlineStr"/>
     </row>
     <row r="420">
@@ -11962,7 +12090,11 @@
           <t>エレシュキガル</t>
         </is>
       </c>
-      <c r="E420" t="inlineStr"/>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>埃列什基伽勒</t>
+        </is>
+      </c>
       <c r="F420" t="inlineStr"/>
     </row>
     <row r="421">
@@ -12264,6 +12396,246 @@
       </c>
       <c r="E435" t="inlineStr"/>
       <c r="F435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>433</v>
+      </c>
+      <c r="B436" t="n">
+        <v>5</v>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Lancer</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>ビショーネ</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>434</v>
+      </c>
+      <c r="B437" t="n">
+        <v>4</v>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>黒姫</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>435</v>
+      </c>
+      <c r="B438" t="n">
+        <v>5</v>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Caster</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>小野小町</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr"/>
+      <c r="F438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>436</v>
+      </c>
+      <c r="B439" t="n">
+        <v>0</v>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Uolgamariegrandcollection</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>Ｅ－グランマリー</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>437</v>
+      </c>
+      <c r="B440" t="n">
+        <v>5</v>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Pretender</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>ダンテ・アリギエーリ</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr"/>
+      <c r="F440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>438</v>
+      </c>
+      <c r="B441" t="n">
+        <v>5</v>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Ruler</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>メタトロン・ジャンヌ</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr"/>
+      <c r="F441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>439</v>
+      </c>
+      <c r="B442" t="n">
+        <v>4</v>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Lancer</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>アショカ王</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>440</v>
+      </c>
+      <c r="B443" t="n">
+        <v>5</v>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Berserker</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>リリス</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr"/>
+      <c r="F443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>441</v>
+      </c>
+      <c r="B444" t="n">
+        <v>5</v>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Pretender</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>テュフォン・エフェメロス</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>442</v>
+      </c>
+      <c r="B445" t="n">
+        <v>5</v>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Lancer</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>インドラ</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr"/>
+      <c r="F445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>443</v>
+      </c>
+      <c r="B446" t="n">
+        <v>0</v>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Uolgamariestellarcollection</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>Ｅ－ステラマリー</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr"/>
+      <c r="F446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>444</v>
+      </c>
+      <c r="B447" t="n">
+        <v>5</v>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>Ｕ－オルガマリー</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr"/>
+      <c r="F447" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/webcrawler/servents.xlsx
+++ b/webcrawler/servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F447"/>
+  <dimension ref="A1:F459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,52 +470,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Berserker</t>
+          <t>Foreigner</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ヘンリー・ジキル＆ハイド</t>
+          <t>蒼崎青子</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>亨利·傑基爾＆海德</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>亨利．傑基爾＆海德</t>
-        </is>
-      </c>
+          <t>蒼崎青子</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Foreigner</t>
+          <t>Berserker</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>蒼崎青子</t>
+          <t>ヘンリー・ジキル＆ハイド</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>蒼崎青子</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>亨利·傑基爾＆海德</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>亨利．傑基爾＆海德</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -11543,7 +11543,11 @@
           <t>托勒密</t>
         </is>
       </c>
-      <c r="F397" t="inlineStr"/>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>托勒密</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -11567,7 +11571,11 @@
           <t>杉谷善住坊</t>
         </is>
       </c>
-      <c r="F398" t="inlineStr"/>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>杉谷善住坊</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -11591,7 +11599,11 @@
           <t>忒修斯</t>
         </is>
       </c>
-      <c r="F399" t="inlineStr"/>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>忒修斯</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -11615,7 +11627,11 @@
           <t>武田晴信</t>
         </is>
       </c>
-      <c r="F400" t="inlineStr"/>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>武田晴信</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -11639,7 +11655,11 @@
           <t>永倉新八</t>
         </is>
       </c>
-      <c r="F401" t="inlineStr"/>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>永倉新八</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -11663,7 +11683,11 @@
           <t>雜賀孫一</t>
         </is>
       </c>
-      <c r="F402" t="inlineStr"/>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>雜賀孫一</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -11687,7 +11711,11 @@
           <t>上杉謙信</t>
         </is>
       </c>
-      <c r="F403" t="inlineStr"/>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>上杉謙信</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -11711,7 +11739,11 @@
           <t>尼莫〔聖誕〕</t>
         </is>
       </c>
-      <c r="F404" t="inlineStr"/>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>尼莫〔Santa〕</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -12114,7 +12146,11 @@
           <t>謎の代行者C.I.E.L</t>
         </is>
       </c>
-      <c r="E421" t="inlineStr"/>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>謎之代行者C.I.E.L</t>
+        </is>
+      </c>
       <c r="F421" t="inlineStr"/>
     </row>
     <row r="422">
@@ -12134,7 +12170,11 @@
           <t>ドブルイニャ・ニキチッチ</t>
         </is>
       </c>
-      <c r="E422" t="inlineStr"/>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>多佈雷尼亞·尼基季奇</t>
+        </is>
+      </c>
       <c r="F422" t="inlineStr"/>
     </row>
     <row r="423">
@@ -12154,7 +12194,11 @@
           <t>徐福</t>
         </is>
       </c>
-      <c r="E423" t="inlineStr"/>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>方巿</t>
+        </is>
+      </c>
       <c r="F423" t="inlineStr"/>
     </row>
     <row r="424">
@@ -12174,7 +12218,11 @@
           <t>ＢＢドバイ</t>
         </is>
       </c>
-      <c r="E424" t="inlineStr"/>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>ＢＢ迪拜</t>
+        </is>
+      </c>
       <c r="F424" t="inlineStr"/>
     </row>
     <row r="425">
@@ -12194,7 +12242,11 @@
           <t>テノチティトラン</t>
         </is>
       </c>
-      <c r="E425" t="inlineStr"/>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>特諾奇蒂特蘭</t>
+        </is>
+      </c>
       <c r="F425" t="inlineStr"/>
     </row>
     <row r="426">
@@ -12214,7 +12266,11 @@
           <t>謎のヒロインXX〔オルタ〕</t>
         </is>
       </c>
-      <c r="E426" t="inlineStr"/>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>謎之女主角XX〔Alter〕</t>
+        </is>
+      </c>
       <c r="F426" t="inlineStr"/>
     </row>
     <row r="427">
@@ -12234,7 +12290,11 @@
           <t>岸波白野</t>
         </is>
       </c>
-      <c r="E427" t="inlineStr"/>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>岸波白野</t>
+        </is>
+      </c>
       <c r="F427" t="inlineStr"/>
     </row>
     <row r="428">
@@ -12254,7 +12314,11 @@
           <t>岸波白野</t>
         </is>
       </c>
-      <c r="E428" t="inlineStr"/>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>岸波白野</t>
+        </is>
+      </c>
       <c r="F428" t="inlineStr"/>
     </row>
     <row r="429">
@@ -12626,7 +12690,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>Unbeastolgamarie</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -12636,6 +12700,246 @@
       </c>
       <c r="E447" t="inlineStr"/>
       <c r="F447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>445</v>
+      </c>
+      <c r="B448" t="n">
+        <v>5</v>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>パッションリップ</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>446</v>
+      </c>
+      <c r="B449" t="n">
+        <v>4</v>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Rider</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>クリームヒルト</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr"/>
+      <c r="F449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>447</v>
+      </c>
+      <c r="B450" t="n">
+        <v>4</v>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Berserker</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>呼延灼</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr"/>
+      <c r="F450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>448</v>
+      </c>
+      <c r="B451" t="n">
+        <v>5</v>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Mooncancer</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>玉兎</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>449</v>
+      </c>
+      <c r="B452" t="n">
+        <v>4</v>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Lancer</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>美遊・エーデルフェルト</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr"/>
+      <c r="F452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>450</v>
+      </c>
+      <c r="B453" t="n">
+        <v>5</v>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Archer</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>ラーヴァ／ティアマト</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr"/>
+      <c r="F453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>451</v>
+      </c>
+      <c r="B454" t="n">
+        <v>4</v>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Alterego</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>ジュネス・クレーン</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr"/>
+      <c r="F454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>452</v>
+      </c>
+      <c r="B455" t="n">
+        <v>5</v>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Rider</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>ネモ／ノア</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr"/>
+      <c r="F455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>453</v>
+      </c>
+      <c r="B456" t="n">
+        <v>5</v>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Assassin</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>河上彦斎</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr"/>
+      <c r="F456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>454</v>
+      </c>
+      <c r="B457" t="n">
+        <v>4</v>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Avenger</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>藤堂平助</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr"/>
+      <c r="F457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>455</v>
+      </c>
+      <c r="B458" t="n">
+        <v>4</v>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Lancer</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>原田左之助</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr"/>
+      <c r="F458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>456</v>
+      </c>
+      <c r="B459" t="n">
+        <v>5</v>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>近藤勇</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr"/>
+      <c r="F459" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
